--- a/biology/Zoologie/Diptychus/Diptychus.xlsx
+++ b/biology/Zoologie/Diptychus/Diptychus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diptychus est un genre de poissons d'eau douce téléostéens de la famille des Cyprinidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (20 novembre 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (20 novembre 2016) :
 Diptychus maculatus Steindachner, 1866 - espèce type
 Diptychus sewerzowi Kessler, 1872</t>
         </is>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Diptychus Steindachner, 1866[2].
-Diptychus a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Diptychus Steindachner, 1866.
+Diptychus a pour synonyme :
 Diptichus</t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Diptychus, dérive du grec ancien dýo, δύο, « deux », et πτυχός, ptychós, « couche ou pli », fait référence à la mâchoire inférieure de l'espèce type, Diptychus maculatus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Diptychus, dérive du grec ancien dýo, δύο, « deux », et πτυχός, ptychós, « couche ou pli », fait référence à la mâchoire inférieure de l'espèce type, Diptychus maculatus.
 </t>
         </is>
       </c>
